--- a/finetuning/it_datasets/qa_dataset/qa_it_el fahs_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_el fahs_dataset.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
         </is>
       </c>
     </row>
@@ -667,14 +667,10 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a great Restaurant, check out Restaurant Pizzeria soltan located at 9WJ6+MFJ Restaurant Pizzeria soltan, Unnamed Road, El Fahs. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:30-00:00, but closed on . To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website at nan or call them at 53 200 217.</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated Restaurant with a wide range of categories in el fahs?</t>
-        </is>
-      </c>
+          <t>The Restaurant Pizzeria soltan, located in el fahs (Tunisia) at the coordinates (36.3758676, 9.9026365), is a place with a rating of 4.1 out of 5 and 10 reviews. It's a restaurant that offers a variety of dishes, and it's open from 8:30 AM to 12:00 AM. The restaurant also has a website and a phone number for reservations.</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -778,14 +774,10 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Pizza Famoso located at 9WC3+MM4 Pizza Famoso, El Fahs. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on []. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website at or call them at 52 223 674.</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated Restauration rapide restaurant with a 5.0 rating and a unique menu in el fahs?</t>
-        </is>
-      </c>
+          <t>Pizza Famoso is a fast food restaurant located in El Fahs, Morocco. It offers a variety of pizzas and other fast food items. The restaurant is open from 9am to 5pm, and is closed on Fridays. Pizza Famoso is located at 9WC3+MM4, El Fahs, Morocco.</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -885,14 +877,10 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in el fahs, Cafe Hambousi located at 9WM5+FQ7 Cafe Hambousi is a must-visit spot for Cafe lovers. Rated 4.0, this top-rated destination offers a range of Cafe to choose from. It's open during these hours: 04:00-23:00, but closed on . To get there, use these GPS coordinates: 36.3758676, 9.9026365.</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated cafe with a wide selection of coffee options in El Fahs?</t>
-        </is>
-      </c>
+          <t>Café Hambousi, a cafe located in El Fahs (Tunisia), offers a wide variety of coffee, tea, and pastries. Located at 9WM5+FQ7 Cafe Hambousi, GP3, El Fahs, the cafe is open from 4:00 AM to 11:00 PM and has received a 4.0 rating from 6 reviews.</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -996,14 +984,10 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Ice Dream located at 9WH5+53G Ice Dream, Rue de Mohamed Ali, El Fahs. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-14:00, 16:00-21:00, but closed on lundi. To get there, use these GPS coordinates: 36.3758676, 9.9026365.  or call them at 23 154 407.</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated cafe in El Fahs that serves a variety of cafe options?</t>
-        </is>
-      </c>
+          <t>Ice Dream is a cafe located in El Fahs, Tunisia. It has a rating of 5.0 stars and offers a wide variety of coffee and tea drinks, as well as pastries and sandwiches. The cafe is open from 9am to 2pm and 4pm to 9pm, and is closed on Mondays. It is located at 9WH5+53G Ice Dream, Rue de Mohamed Ali, El Fahs.</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1107,14 +1091,10 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a top-rated pizzeria, check out Maestro El Fahs located at 9W92+QVM Maestro El Fahs, Avenue de l'environnement, El Fahs. With a rating of 5.0, it's a must-visit spot for pizzeria lovers. It's open from 10:00-23:30 during the week. To get there, use these GPS coordinates: 36.37419, 9.90651. Or call them at 26 895 919 for more details.</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>Question: You're in El Fahs and craving the best-rated pizzeria in town. What's the name of this must-visit spot, and where can you find it?</t>
-        </is>
-      </c>
+          <t>Nestled in the bustling town of El Fahs, the acclaimed Pizzeria, Maestro El Fahs, awaits you. With a remarkable rating of 5.0 and 6 positive reviews, it offers a delightful culinary experience. Located at coordinates (36.37419, 9.90651), it's conveniently situated on Avenue de l'environnement 9W92+QVM.</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1206,14 +1186,10 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a top-rated dining destination, check out Domino's at 9WM5+9G8 Domino's, C28, El Fahs. This Restaurant has a rating of 5.0 and offers a range of categories to choose from. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website at https://www.google.com/maps/place/Domino%27s/data=!4m7!3m6!1s0x12fd1d737a857e6d:0x61443991e14a6569!8m2!3d36.3834073!4d9.9088296!16s%2Fg%2F11hnbzjgmd!19sChIJbX6FenMd_RIRaWVK4ZE5RGE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>Where can you find a top-rated dining destination in El Fahs with a 5.0 rating and convenient GPS coordinates for easy navigation?</t>
-        </is>
-      </c>
+          <t>Domino's is a restaurant located in El Fahs, Tunisia. It offers a variety of food items, including pizza, pasta, and sandwiches. The restaurant is located at the following coordinates: (36.3758676, 9.9026365).</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1313,14 +1289,10 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a top-rated Cafe, check out Patisserie Hanedi located at 9WJ5+5FQ Patisserie Hanedi, P3, El Fahs. With a 4.0 rating, this destination is perfect for Cafe lovers. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.3758676, 9.9026365.</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>Where in El Fahs can you find a highly-rated café with a 4.0 rating?</t>
-        </is>
-      </c>
+          <t>Patisserie Hanedi is a cafe located in El Fahs, Tunisia. The cafe is situated at 9WJ5+5FQ, P3, El Fahs and offers a variety of food and drink options. The cafe is open from 6am to 11pm, 7 days a week and has a rating of 4.0 out of 5 on Google Maps.</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1420,14 +1392,10 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a top-rated cafe, check out Cafe MED located at 9WRW+WX6 Cafe MED, El Fahs. Open for extended hours from 04:00-00:00, this cafe serves up delicious coffee and pastries amidst a cozy ambiance. With a rating of 5.0, it's a must-visit spot for any cafe lover exploring the city.</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>If you're craving a delectable cup of coffee and delectable pastries while exploring the charming streets of El Fahs, where is the highly-rated Cafe MED conveniently located for extended hours?</t>
-        </is>
-      </c>
+          <t>Café MED is a highly rated café located in El Fahs at the coordinates (36.3758676, 9.9026365). With a 5.0 rating from 4 reviews, the café offers a great experience to its customers. The featured image on Google Maps gives a glimpse of the café's ambiance. The categories associated with Café MED are "Cafe," making it a perfect spot for coffee enthusiasts. The café is open from 4:00 AM to 12:00 AM, making it a convenient option for early risers and late-night coffee cravings. Unfortunately, there are no details about the website, phone number, or owner available.</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1527,14 +1495,10 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a top-rated cafe, check out Cafe prestige located at C28, El Fahs. With a rating of 4.0, it's a must-visit spot for Cafe lovers and offers a range of categories to choose from. It's open daily from 04:00-00:00. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A8+prestige/data=!4m7!3m6!1s0x12fd1df14e6d6385:0xca6995020c39aa58!8m2!3d36.38494!4d9.9092107!16s%2Fg%2F11rgftx8hn!19sChIJhWNtTvEd_RIRWKo5DAKVaco?authuser=0&amp;hl=fr&amp;rclk=1</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>Where can you find the top-rated Cafe Prestige in el fahs, known for its exceptional 4.0 rating and comprehensive category offerings?</t>
-        </is>
-      </c>
+          <t>Cafe prestige is a cafe located in El Fahs, Tunisia. It is open from 4:00 AM to midnight, and offers a variety of food and drinks. The cafe has a 4.0-star rating on Google, and is known for its friendly staff and cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1630,14 +1594,10 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a cozy spot to enjoy a coffee, check out Cafe Naffeti at 9WF2+FRF. This top-rated Cafe is a must-visit with a rating of 4.0. It's open 24/7. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Naff%C3%A9ti/data=!4m7!3m6!1s0x12fd1d5586d0624d:0xd739098ce9fbbe6d!8m2!3d36.3736979!4d9.9020387!16s%2Fg%2F12ml2vpm4!19sChIJTWLQhlUd_RIRbb776YwJOdc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>Where can you find Cafe Naffeti, a highly-rated spot known for its cozy ambiance, convenient 24/7 hours, and prime location in el fahs?</t>
-        </is>
-      </c>
+          <t>Cafe Naffeti is a cafe located in El Fahs, Tunisia at (36.3736141, 9.9020549). The cafe is open 24 hours a day and has a rating of 4.0 based on 3 reviews. Cafe Naffeti is owned by Cafe Naffeti (proprietaire).</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1737,16 +1697,10 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in el fahs, check out Dar El Malfouf located at 9WG3+528 Dar El Malfouf, P3, El Fahs. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website or call them at 22 500 516.</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated Pizzeria serving a variety of options in El Fahs with convenient GPS coordinates and phone number listed?</t>
-        </is>
-      </c>
+          <t>If you're looking for authentic Italian pizza in El Fahs, Dar El Malfouf is well-worth a visit. Located at coordinates (36.3758676, 9.9026365), it is highly rated by customers, with an average rating of 4.7 out of 5.</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1842,14 +1796,10 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a great cafe, check out Cafeteria located at 9WF3+HW3 Cafeteria, Rue de Mohamed Ali, El Fahs. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9t%C3%A9ria/data=!4m7!3m6!1s0x12fd1d916b43027b:0x936049895eb6032f!8m2!3d36.3738844!4d9.9048113!16s%2Fg%2F11h6mdm7gn!19sChIJewJDa5Ed_RIRLwO2XolJYJM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided phone number.</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>If you're seeking a highly-rated cafe in El Fahs known for its exceptional offerings, where can you find Cafeteria?</t>
-        </is>
-      </c>
+          <t>Located in el fahs at the coordinates (36.3758676, 9.9026365), Cafeteria is a cafe that has a rating of 4.0 based on 3 reviews. Unfortunately, there is no additional information available about the establishment's offerings, hours of operation, or contact details.</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1941,14 +1891,10 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Cafe louh located at 9V9X+G7F Cafe louh, P4, El Fahs. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+louh/data=!4m7!3m6!1s0x12fcfd5813ff048f:0xb92c98b6b8aca711!8m2!3d36.3683533!4d9.8991536!16s%2Fg%2F11v0jfp5lr!19sChIJjwT_E1j9_BIREaesuLaYLLk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>Where in el fahs can you find a top-rated cafe with a 5.0 rating and a wide selection of Cafe?</t>
-        </is>
-      </c>
+          <t>Cafe louh is a cafe located in el fahs, Tunisia. It is known for its great service and atmosphere. The cafe is located at the coordinates (36.3758676, 9.9026365) and has a rating of 5.0.</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2040,14 +1986,10 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a great cafe, check out mqh~ llwH located at 9WJ5+2CJ mqh~ llwH, shr` lHry@. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365.</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated cafe with cafe options in el fahs, located at specific GPS coordinates, making it a must-visit destination for cafe enthusiasts?</t>
-        </is>
-      </c>
+          <t>mqh~ llwH is a cafe located in el Fahs. We unfortunately do not have more information at the moment but it has a 4.5 grade with 2 reviews and its main category is Cafe.</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2139,16 +2081,10 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out mqh~ shyshkhn located at 9WG3+RJX mqh~ shyshkhn, P3, El Fahs. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365.</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>What is the highly-rated destination with a 5.0 rating, perfect for Cafe lovers in El Fahs, located at 9WG3+RJX mqh~ shyshkhn, P3?</t>
-        </is>
-      </c>
+          <t>mqh~ shyshkhn is a cafe located in El Fahs, Tunisia, at the coordinates (36.3758676, 9.9026365). It has received a 5.0 rating from 2 reviews and offers a range of food and drinks.</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2244,14 +2180,10 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're seeking a first-rate Cafe experience in el fahs, then Cafe Liberta located at 9WM5+JQ8 Cafe Liberta, P3 is the place for you. With 2 reviews and a rating of 4.0, this establishment is a true gem. To reach Cafe Liberta, simply use the GPS coordinates: 36.3758676, 9.9026365.</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated (4.0) cafe called Cafe Liberta, known for its exceptional dining experience in el fahs?</t>
-        </is>
-      </c>
+          <t>Cafe Liberta, located in el fahs at 9WM5+JQ8 Cafe Liberta, P3, offers a cozy ambiance and a variety of cafe beverages. It's situated at coordinates (36.3758676, 9.9026365), with a rating of 4.0 based on 2 customer reviews.</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2343,14 +2275,10 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out qhw@ shkry located at 9V8V+HWV qhw@ shkry, El Fahs. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website at https://www.google.com/maps/place/%D9%82%D9%87%D9%88%D8%A9+%D8%B4%D9%83%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x12fcfd53c28586b5:0xf6547c2be817fe58!8m2!3d36.3664862!4d9.8947891!16s%2Fg%2F11bzvbdwby!19sChIJtYaFwlP9_BIRWP4X6Ct8VPY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>Where in El Fahs can you find a top-rated Cafe with a 5.0 rating, perfect for Cafe enthusiasts?</t>
-        </is>
-      </c>
+          <t>Cafe qhw@ shkry is located in El Fahs, Tunisia. It has a 5.0 rating based on 2 reviews, and is known for its coffee and cafe offerings. It is situated at coordinates (36.3758676, 9.9026365).</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2446,14 +2374,10 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a great Cafe, check out L'ESCALE located at 9WR6+GC8 L'ESCALE, GP3, El Fahs. This highly-rated destination offers a range of Cafe options to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website at https://www.google.com/maps/place/L%27ESCALE/data=!4m7!3m6!1s0x12fd1d6906a307d3:0x6e9d2a284076f8e6!8m2!3d36.3912941!4d9.9110765!16s%2Fg%2F11jntrdpr8!19sChIJ0wejBmkd_RIR5vh2QCgqnW4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>Where can you find a top-rated Cafe with GPS coordinates 36.3758676, 9.9026365 and a rating of 4.5 in el fahs?</t>
-        </is>
-      </c>
+          <t>L'ESCALE is a highly-rated cafe located in el fahs, Tunisia. With an average rating of 4.5 out of 5 stars based on 2 reviews, it's a popular spot for locals and tourists alike. The cafe offers a relaxing ambiance and delicious menu items, making it a great place to unwind and enjoy a peaceful afternoon. Its exact location is 9WR6+GC8 L'ESCALE, GP3, El Fahs, with coordinates (36.3758676, 9.9026365).</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2545,15 +2469,10 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a quality Cafe to spend quality time with your loved ones, check out Caffe located at 9WG4+G53 Caffe, Rue de Mohamed Ali, El Fahs. 
-This top-rated destination is perfect for Cafe lovers and offers a great ambience. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their link at https://www.google.com/maps/place/Caffe/data=!4m7!3m6!1s0x12fd1d7bea46ace9:0x5e3be91de2d434b0!8m2!3d36.376271!4d9.9054065!16s%2Fg%2F11nxnv5mky!19sChIJ6axG6nsd_RIRsDTU4h3pO14?authuser=0&amp;hl=fr&amp;rclk=1</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated cafe with a great ambience in El Fahs that is ideal for spending quality time with loved ones?</t>
-        </is>
-      </c>
+          <t>Located at Rue de Mohamed Ali in El Fahs, Caffe is a place with a 4.0 rating on Google Maps. It offers a cozy ambiance to enjoy a cup of coffee and relax. As a cafe, Caffe's primary focus is on providing a comfortable and welcoming space for its customers. It's located conveniently for those in the El Fahs area to grab a beverage and unwind.</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2657,14 +2576,10 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Cafe Fratelli located at 9WG4+G52 Cafe Fratelli, Rue d'Algerie. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 34.6616062, -1.5475202. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Fratelli/data=!4m7!3m6!1s0x12fd1d9e5c7797ff:0xc03a28d89527095b!8m2!3d36.3762729!4d9.9053949!16s%2Fg%2F11tcmnpfpq!19sChIJ_5d3XJ4d_RIRWwknldgoOsA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 72 670 066.</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated Cafe offering a variety of options in El Fahs, with a 5.0 rating and convenient hours of operation?</t>
-        </is>
-      </c>
+          <t>Café Fratelli in El Fahs is a popular destination for coffee lovers and café-goers. Enjoy a cozy atmosphere, friendly service, and delicious coffee. Located at 9WG4+G52 Rue d'Algerie, Café Fratelli is open from 6am to midnight, serving a variety of coffee drinks, pastries, and light snacks.</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2760,14 +2675,10 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Cafe Terminus. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website at https://www.google.com/maps/place/Cafe+Terminus/data=!4m7!3m6!1s0x12fd1d45d9bede43:0xeaaff9001aa45b8e!8m2!3d36.3816836!4d9.9182545!16s%2Fg%2F11g9q7qst0!19sChIJQ96-2UUd_RIRjlukGgD5r-o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>What highly-rated cafe, known as a must-visit destination, can be found in el fahs at GPS coordinates 36.3758676, 9.9026365?</t>
-        </is>
-      </c>
+          <t>Cafe Terminus, located in El Fahs, is a highly rated (5.0 out of 5 stars) cafe with a featured image that showcases its warm and inviting ambiance. Although no detailed description, website, or contact information is available, the cafe's exact location can be found at (36.3758676, 9.9026365) with coordinates (36.3758676, 9.9026365).</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2867,14 +2778,10 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Cafe zitouna located at 9WP5+4MQ Cafe zitouna, El Fahs. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:00-02:00. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+zitouna/data=!4m7!3m6!1s0x12fd1d5b8e3fdd61:0x58064b3c4e6ee401!8m2!3d36.3853322!4d9.9092338!16s%2Fg%2F11bz_qd0s_!19sChIJYd0_jlsd_RIRAeRuTjxLBlg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>Where can I find a highly-rated Cafe with a variety of options in El Fahs?</t>
-        </is>
-      </c>
+          <t>Cafe zitouna is located in el fahs, Tunisia. It's a cafe with a 5.0 rating and 1 review. It's open from 4:00 AM - 2:00 AM and is closed on . Cafe zitouna is also featured in the Google Maps Street View.</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2970,14 +2877,10 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you are in el fahs and searching for a delectable dining experience, pay a visit to Resto l orient barbecue at 9WV6+3G7. This highly rated restaurant specializes in Restaurant tunisien cuisine and offers a remarkable dining experience. With an exceptional rating of 5.0, it's a must-visit spot, open 24 hours a day. For precise directions, utilize the GPS coordinates: (36.3758676, 9.9026365). For further information or reservations, kindly refer to their website or contact them directly.</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>If you're craving delicious Tunisian cuisine in El Fahs, what highly rated restaurant awaits your visit just a short drive away, open around the clock and boasting exceptional ratings?</t>
-        </is>
-      </c>
+          <t>Resto l orient barbecue is a Tunisian restaurant located in El Fahs, Tunisia. It has a 5.0 rating and is open 24 hours a day.</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3077,16 +2980,10 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in El Fahs and looking for a great cup of coffee, check out Cafe les jasmins located at 9V8V+GH Cafe les jasmins, El Fahs. 
-This top-rated destination is perfect for cafe lovers and offers delicious coffee and pastries. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.8626012, 10.2762615. For more details, call them at 22 729 232.</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated cafe with delicious coffee and pastries in El Fahs, offering a perfect destination for cafe enthusiasts?</t>
-        </is>
-      </c>
+          <t>Café Les Jasmins is a cafe located in El Fahs, Tunisia. It is conveniently situated near the city centre, making it easily accessible to both locals and visitors. The cafe offers a warm and inviting atmosphere, with a tasteful interior decor and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3178,18 +3075,10 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a great Cafe experience, check out Cafe zobair ben naser located at 9WJC+73 Cafe zobair ben naser, El Fahs. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 36.3758676, 9.9026365. 
-For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+zobair+ben+naser/data=!4m7!3m6!1s0x12fd1dd87551bd05:0xf8d219d75b9c8ae0!8m2!3d36.3806483!4d9.9201819!16s%2Fg%2F11tgddwbfr!19sChIJBb1Rddgd_RIR4IqcW9cZ0vg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>Where in El Fahs can you find a highly-rated Cafe experience with top-notch Cafe offerings and a convenient location?</t>
-        </is>
-      </c>
+          <t>Cafe zobair ben naser is a cafe located in el fahs, Tunisia. It has a 5.0 rating and offers a wide variety of food and drinks. It is a great place to relax and enjoy a meal with friends or family. The cafe is located at 9WJC+73 and its coordinates are (36.3758676, 9.9026365).</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3279,12 +3168,14 @@
           <t>el fahs</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>What unique destination is renowned for its pristine beaches, vibrant nightlife, and rich Mayan history, offering an unforgettable blend of relaxation and cultural immersion?</t>
-        </is>
-      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>**Cafe daaboub (El Fahs)**
+Cafe daaboub is a tea room located in El Fahs, Tunisia at coordinates (36.3758676, 9.9026365). 
+It has only been reviewed once, but it has been given a 5-star rating.</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3380,16 +3271,10 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a great Cafe, check out Cafe de Republique. 
-This top-rated destination offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. Cafe de Republique is located at 9WF2+HWG Cafe de Republique, El Fahs. To get there, use these GPS coordinates: 45.499426, -73.572084.</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated Cafe (rated 5.0) named Cafe de Republique in El Fahs?</t>
-        </is>
-      </c>
+          <t>Cafe de Republique is a cafe located in El Fahs, Tunisia. It has a rating of 5.0 out of 5 based on one review and offers a variety of cafe-style food and drinks. The cafe is located at 9WF2+HWG and can be contacted at https://www.google.com/maps/place/Caf%C3%A9+de+R%C3%A9publique/data=!4m7!3m6!1s0x12fd1d4a5baf2e0d:0x120aaeb9870071ed!8m2!3d36.3739408!4d9.9023422!16s%2Fg%2F11vl23pkk8!19sChIJDS6vW0od_RIR7XEAh7muChI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3481,14 +3366,10 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a great place to enjoy a cup of coffee, check out Cafe Morad. Located at 9WQF+5C7, this top-rated cafe is perfect for coffee lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365.</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated cafe that offers a perfect coffee experience in El Fahs, as indicated by GPS coordinates and a 5.0 rating?</t>
-        </is>
-      </c>
+          <t>Cafe Morad is a renowned cafe praised for its excellent service, earning a 5-star rating based on customer reviews. Located in the heart of el fahs, Cafe Morad offers a cozy ambiance for patrons seeking a relaxing respite. While specific details about its offerings and amenities remain limited, Cafe Morad remains a highly recommended destination for coffee lovers and those seeking a pleasant cafe experience.</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3576,14 +3457,11 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're a true Boulangerie enthusiast in el fahs, then T28 located at 9WV6+3G7 T28, C28, El Fahs is the perfect destination for you. Known for its top-notch quality in Boulangerie, this highly-rated spot offers a range of menu items to satisfy your cravings. With a perfect rating of 5.0, it's a must-visit place. For more details, visit their website at https://www.google.com/maps/place/T28/data=!4m7!3m6!1s0x12fd1d8353e3fbb3:0x25e2edf0ecbea9e4!8m2!3d36.3926728!4d9.9113087!16s%2Fg%2F11q253flgb!19sChIJs_vjU4Md_RIR5Km-7PDt4iU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>What highly-rated Boulangerie destination can you find at 9WV6+3G7 T28, C28 in El Fahs, known for its exceptional quality and menu variety, earning a perfect 5.0 rating and making it an ideal destination for Boulangerie enthusiasts?</t>
-        </is>
-      </c>
+          <t>**T28**
+Located in El Fahs, T28 is a 5-star rated bakery.</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3683,16 +3561,10 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out mT`m bl lwlw located at 9WR6+Q72 mT`m bl lwlw, P3, El Fahs. 
-This top-rated destination is perfect for Restaurant de grillades lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 36.3758676, 9.9026365.</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated Restaurant de grillades destination with 24-hour service in el Fahs?</t>
-        </is>
-      </c>
+          <t>Located at (36.3758676, 9.9026365), mT`m bl lwlw is a grill restaurant located in El Fahs, Tunisia. Open 24 hours a day, this restaurant does not have a website or offer online reviews.</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3792,14 +3664,10 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a top-rated restaurant, check out Rafik restaurant located at 9WF2+MWH Rafik restaurant, P3, El Fahs. This highly-rated destination is perfect for Restaurant enthusiasts. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.7559322, -5.79827. For more details, visit their website at https://www.google.com/maps/place/Rafik+restaurant/data=!4m7!3m6!1s0x12fd1dc699de99f1:0xf958f9a2b1daed3b!8m2!3d36.3741925!4d9.9023722!16s%2Fg%2F11gxwcc0sj!19sChIJ8ZnemcYd_RIRO-3asaL5WPk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 93 419 871.</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>Where is the highly-rated Rafik restaurant located in El Fahs, and what distinguishes it from others?</t>
-        </is>
-      </c>
+          <t>Rafik restaurant is a highly-rated (5.0 stars) restaurant located in El Fahs. Its exact location is 9WF2+MWH Rafik restaurant, P3, El Fahs, Tunisia. It offers a variety of dining options, and is open during the week. The restaurant's featured image showcases a beautifully presented dish, making it visually appealing to potential customers.</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3895,14 +3763,10 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a great cafe, check out Cafe Naffeti located at 9WF2+FRF Cafe Naffeti, P3, El Fahs. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, but closed on []. To get there, use these GPS coordinates: 36.3736141, 9.9020549.</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>Where can you find Cafe Naffeti, a highly-rated cafe with 24-hour availability in El Fahs?</t>
-        </is>
-      </c>
+          <t>Café Naafeti is a cafe located in El Fahs. Its exact location is 9WF2+FRF Cafe Naffeti, P3, El Fahs with coordinates (36.3736141, 9.9020549). The cafe is open 24 hours a day and offers a variety of food and drinks.</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3998,14 +3862,10 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out El fahs located at 9WMF+R2Q El fahs, El Fahs. This top-rated destination is perfect for Lotissement lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.37419, 9.90651. For more details, visit their website at https://www.google.com/maps/place/El+fahs/data=!4m7!3m6!1s0x12fd1dbb930f7739:0x5a78b3787f50c514!8m2!3d36.3845775!4d9.922622!16s%2Fg%2F11s88zpx5g!19sChIJOXcPk7sd_RIRFMVQf3izeFo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>What is the top-rated destination for Lotissement enthusiasts in El fahs with a 4.3 rating and located at specific GPS coordinates?</t>
-        </is>
-      </c>
+          <t>El fahs is a residential area located in El Fahs, Tunisia. It offers a variety of housing options, from apartments to villas. The area is well-connected to the rest of the city by public transportation and has a variety of amenities, including schools, hospitals, and shopping centers. El fahs is a great place to live for families and professionals alike.</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4101,16 +3961,10 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>**Fahs - Fahs, Rue Maarouf Errassafi, El Fahs**
-Fahs is a top-rated residence located in el fahs, a perfect destination for those seeking comfortable living accommodations. With a rating of 3.3, it offers a pleasant and relaxing stay. The residence provides a range of amenities to ensure a comfortable and enjoyable experience.
-For further information and any inquiries, visit the official website.</t>
-        </is>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>Where is Fahs located and what makes it a desirable residential destination for travelers seeking comfort and convenience?</t>
-        </is>
-      </c>
+          <t>Fahs is a residence located in el fahs, Tunisia. It is rated 3.3 out of 5 stars based on 3 reviews. Fahs offers a variety of amenities and services to its guests, including free Wi-Fi, a restaurant, and a fitness center. It is conveniently located near several attractions, including the Medina of Tunis and the Carthage Ruins.</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4210,14 +4064,10 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in El Fahs and looking for a top-rated historic site, check out Thuburbo Majus located at 9WX3+VRQ, Thuburbo Majus. This 4.5-rated destination is perfect for history enthusiasts and offers a variety of ruins, temples, and mosaics to explore. It's open during these hours: 08:00-17:00, but closed on unspecified days. To get there, use these GPS coordinates: 36.4027683, 9.9019839. For more details, visit their website at https://www.google.com/maps/place/Thuburbo+Majus/data=!4m7!3m6!1s0x12fd1d63a07c5323:0xf5b173431bcb6d99!8m2!3d36.3997129!4d9.9046058!16zL20vMGI0NW1u!19sChIJI1N8oGMd_RIRmW3LG0NzsfU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at their provided number.</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>Where can you find a top-rated historic site with ruins, temples, and mosaics in El Fahs?</t>
-        </is>
-      </c>
+          <t>Thuburbo Majus is an ancient Roman city located near el Fahs in Tunisia. The site is known for its well-preserved ruins, which include temples, baths, a forum, and a theater. Thuburbo Majus was founded in the 1st century AD and reached its peak in the 3rd and 4th centuries AD. The city declined in the 5th century AD and was eventually abandoned in the 7th century AD. Today, Thuburbo Majus is a popular tourist destination and is considered one of the best examples of a Roman city in North Africa.</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4313,14 +4163,10 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you find yourself in el fahs, be sure to visit the top-rated Temple of Caelstis located at CW23+5M8 Temple of Caelstis, El Fahs. This historical site is perfect for history enthusiasts and has a 4.0 rating. The GPS coordinates for the temple are (36.3758676, 9.9026365).</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>Where can you find the highly-rated Temple of Caelstis, a must-visit historical site for enthusiasts?</t>
-        </is>
-      </c>
+          <t>The Temple of Caelstis, located at El Fahs, is a historic site with an impressive rating of 4.0. Immerse yourself in its rich history and explore its captivating surroundings. Located at coordinates (36.3758676, 9.9026365), this site invites you to unravel its intriguing past and appreciate the beauty of its historical significance.</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4416,16 +4262,10 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Temple of Mercury. located at CW23+F96 Temple of Mercury., Thuburbo Majus, El Fahs. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365.</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>What highly-rated Site historique destination with a 5.0 rating can be found in El Fahs, known for its historical significance?</t>
-        </is>
-      </c>
+          <t>Temple of Mercury is a historical site located in CW23+F96 Temple of Mercury., Thuburbo Majus, El Fahs. It offers a glimpse into the past with its ancient ruins and artifacts. It's situated at (36.3758676, 9.9026365) and is well-rated by visitors with a 5.0 score out of 5.</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4521,14 +4361,10 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Thermes d'Hiver located at CW23+9WV Thermes d'Hiver, El Fahs. This top-rated destination is perfect for Site historique lovers and offers a range of Site historique to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website at https://www.google.com/maps/place/Thermes+d%27Hiver/data=!4m7!3m6!1s0x12fd1d631f76b051:0x963850fa4981f24b!8m2!3d36.4009772!4d9.9048!16s%2Fg%2F11f3n35rfm!19sChIJUbB2H2Md_RIRS_KBSfpQOJY?authuser=0&amp;hl=fr&amp;rclk=1 or call them.</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>Where in El Fahs can you find Thermes d'Hiver, a highly rated destination known for its variety of historical sites?</t>
-        </is>
-      </c>
+          <t>Thermes d'Hiver is a historical site located in El Fahs, Tunisia. It is a popular tourist destination and offers a unique glimpse into the area's rich past. The site is situated at coordinates (36.3758676, 9.9026365).</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4632,17 +4468,10 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out DECO CERAM located at Route de Tunis, El Fahs 1140. 
-This top-rated destination is perfect for Grossiste en ceramique lovers and offers a range of Grossiste en ceramique to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:30-17:00, but closed on dimanche. To get there, use these GPS coordinates: 36.2065846, 9.8469333. for more details, visit their link 
-https://www.google.com/maps/place/DECO+CERAM/data=!4m7!3m6!1s0x1301d33473afd97d:0x917e68b3f7721e19!8m2!3d36.3835492!4d9.9094491!16s%2Fg%2F11hh3w2jf0!19sChIJfdmvczTTARMRGR5y97NofpE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 182 864</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>Where can you find a top-rated destination in el fahs that offers Grossiste en ceramique with a 4.0 rating?</t>
-        </is>
-      </c>
+          <t>DECO CERAM is a wholesaler of ceramics located in el fahs, Tunisia. It offers a wide range of ceramic products, including tiles, sanitary ware, and tableware. The store is open Monday through Saturday from 08:30 to 17:00. It is closed on Sundays. The store is located at the following address: Route de Tunis, El Fahs 1140.</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4738,16 +4567,10 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Ticket Office located at CW32+3VP Ticket Office, Unnamed Road. 
-This top-rated destination is perfect for mwq` trykhy lovers and offers a range of mwq` trykhy to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website at https://www.google.com/maps/place/Ticket+Office/@36.4027171,9.9022086,17z/data=!3m1!4b1!4m6!3m5!1s0x12fd1d726656b63f:0xd5c0d5920d05e91e!8m2!3d36.4027171!4d9.9022086!16s%2Fg%2F11h_vv0w_l?authuser=0&amp;entry=ttu or call them at .</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>If you're in El Fahs searching for an unforgettable experience, where would you find a top-rated destination for mwq' trykhy enthusiasts?</t>
-        </is>
-      </c>
+          <t>Ticket Office is a 4.5-rated place located in el fahs, Tunisia at the coordinates (36.3758676, 9.9026365).</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4843,14 +4666,10 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out El fahs located at 9WMF+R2Q El fahs, El Fahs. This top-rated destination is perfect for Lotissement lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.37419, 9.90651. For more details, visit their website at https://www.google.com/maps/place/El+fahs/data=!4m7!3m6!1s0x12fd1dbb930f7739:0x5a78b3787f50c514!8m2!3d36.3845775!4d9.922622!16s%2Fg%2F11s88zpx5g!19sChIJOXcPk7sd_RIRFMVQf3izeFo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>Where can you visit a highly-rated Lotissement destination named El fahs, known for its 4.3 rating and prime location in El fahs?</t>
-        </is>
-      </c>
+          <t>El Fahs is a residential area located in el fahs, Tunisia (36.37° N, 9.91° E). It's a peaceful neighborhood, ideal for families and individuals seeking a quiet and secure living environment.</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4946,17 +4765,10 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a place to stay, check out Fahs located at Rue Maarouf Errassafi, El Fahs. 
-This top-rated destination is perfect for residence lovers. 
-With a rating of 3.3, it's a must-visit spot. 
-For more details, visit their website at https://www.google.com/maps/place/Fahs/data=!4m7!3m6!1s0x12fd338da268bc67:0x724b5c23129ee1e!8m2!3d36.3774215!4d9.9103377!16s%2Fg%2F11q35yzdv9!19sChIJZ7xooo0z_RIRHu4pMcK1JAc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
-        </is>
-      </c>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated accommodation option for residence lovers in El Fahs?</t>
-        </is>
-      </c>
+          <t>Fahs is a residence located in El Fahs, Tunisia. It has 3 reviews and a rating of 3.3. The residence is situated at the coordinates (36.3758676, 9.9026365). The focus of this place is not provided in the given information.</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -5055,11 +4867,7 @@
         </is>
       </c>
       <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>What remarkable destination awaits you that offers an unforgettable experience?</t>
-        </is>
-      </c>
+      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5163,14 +4971,10 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Restaurant Pizzeria soltan located at 9WJ6+MFJ Restaurant Pizzeria soltan, Unnamed Road, El Fahs. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 08:30-00:00. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Pizzeria+soltan/data=!4m7!3m6!1s0x12fd1d5a93362a29:0x5e178815228e55e8!8m2!3d36.3817125!4d9.9111511!16s%2Fg%2F11f4pm1z2h!19sChIJKSo2k1od_RIR6FWOIhWIF14?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 200 217.</t>
-        </is>
-      </c>
-      <c r="AA45" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated Restaurant Pizzeria with a wide selection of dishes located in El Fahs?</t>
-        </is>
-      </c>
+          <t>Restaurant Pizzeria Soltan is a highly-rated restaurant in El Fahs, Tunisia, with 4.1 stars out of 10 reviews. It offers a range of culinary delights, with an emphasis on pizzas and other Italian dishes. Located on Unnamed Road, near 9WJ6+MFJ, the restaurant boasts convenient opening hours, from 8:30 am to midnight, ensuring that visitors can enjoy its offerings at their leisure.</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5274,14 +5078,10 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Pizza Famoso located at 9WC3+MM4 Pizza Famoso, El Fahs. This top-rated destination is perfect for Restauration rapide lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on []. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit its website at or call them at 52 223 674.</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>Where can you find a 5.0-rated destination known for its Restauration rapide options in El Fahs?</t>
-        </is>
-      </c>
+          <t>Pizza Famoso in El Fahs. This fast food restaurant is located at the coordinates (36.3758676, 9.9026365).</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5373,14 +5173,10 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a great place to eat, head over to Domino's at 9WM5+9G8 Domino's, C28, El Fahs. This highly-rated restaurant is a popular destination for locals and tourists alike. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website at https://www.google.com/maps/place/Domino%27s/data=!4m7!3m6!1s0x12fd1d737a857e6d:0x61443991e14a6569!8m2!3d36.3834073!4d9.9088296!16s%2Fg%2F11hnbzjgmd!19sChIJbX6FenMd_RIRaWVK4ZE5RGE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated (5.0) restaurant with GPS coordinates 36.3758676, 9.9026365 in El Fahs?</t>
-        </is>
-      </c>
+          <t>Domino's is a renowned restaurant located in El Fahs. It has acquired a remarkable 5.0 rating based on 6 positive reviews, showcasing its excellence in the culinary industry. Despite limited information regarding its specific offerings, Domino's is situated at the convenient coordinates of (36.3758676, 9.9026365), making it easily accessible to patrons.</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5484,14 +5280,10 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Maestro El Fahs located at 9W92+QVM Avenue de l'environnement, El Fahs. This top-rated destination is perfect for Pizzeria lovers and has a rating of 5.0. It's a must-visit spot. It's open during these hours: 10:00-23:30. To get there, use these GPS coordinates: 36.37419, 9.90651. For more details, visit their website at https://www.google.com/maps/place/Maestro+El+Fahs/data=!4m7!3m6!1s0x12fd03d0dc9d1715:0x20d54e079704cf5f!8m2!3d36.3694538!4d9.9021737!16s%2Fg%2F11vjnx7yxz!19sChIJFRed3NAD_RIRX88ElwdO1SA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 26 895 919.</t>
-        </is>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated Pizzeria with exceptional ratings in El Fahs, accessible through specific GPS coordinates?</t>
-        </is>
-      </c>
+          <t>Maestro El Fahs, located at 9W92+QVM Avenue de l'environnement, El Fahs (36.37419, 9.90651), is highly acclaimed for its pizzeria offerings, earning a 5-star rating from 6 reviews. Open from 10:00 to 23:30, it is owned by Maestro El Fahs (proprietaire) and offers a convenient phone line for reservations at 26 895 919.</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5591,14 +5383,10 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Cafe Hambousi located at 9WM5+FQ7 Cafe Hambousi, GP3, El Fahs. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 04:00-23:00. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website at https://www.google.com/maps/place/Cafe+Hambousi/data=!4m7!3m6!1s0x12fd1d5bb1bee089:0x446c2c0c0a4d1868!8m2!3d36.3836592!4d9.9094342!16s%2Fg%2F11c2rdykwl!19sChIJieC-sVsd_RIRaBhNCgwsbEQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated cafe offering a variety of options and open late in El Fahs, Tunisia?</t>
-        </is>
-      </c>
+          <t>**Cafe Hambousi** is a popular cafe located in El Fahs, Tunisia (36.3758676, 9.9026365). It offers a cozy and welcoming atmosphere where customers can enjoy a variety of beverages and snacks.</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5702,16 +5490,10 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Ice Dream located at 9WH5+53G Ice Dream, Rue de Mohamed Ali.
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-14:00, 16:00-21:00, but closed on lundis. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website at https://www.google.com/maps/place/Ice+Dream/data=!4m7!3m6!1s0x12fd1d9ceaef54e7:0xc9a2fcddf37f20d3!8m2!3d36.3779279!4d9.9077056!16s%2Fg%2F11f6dlyv9y!19sChIJ51Tv6pwd_RIR0yB_8938osk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 154 407.</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>Where in el fahs can you find a highly-rated (5.0) Cafe with a diverse selection of categories?</t>
-        </is>
-      </c>
+          <t>Ice Dream is a cafe located in El Fahs, Tunisia. It offers a warm and friendly atmosphere for customers to enjoy their time. The cafe serves a variety of drinks, including coffee, tea, and juices, along with a selection of pastries and snacks. Ice Dream is located at 9WH5+53G Rue de Mohamed Ali, El Fahs, and is open from 09:00-14:00 and 16:00-21:00, closed on Mondays.</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5811,14 +5593,10 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in El Fahs and looking for a top-rated cafe, check out Patisserie Hanedi at 9WJ5+5FQ Patisserie Hanedi, P3. This local favorite has a rating of 4.0 and offers a delightful ambiance for cafe lovers. It's open from 6:00 AM to 11:00 PM, so you can enjoy their offerings at your convenience. For more information, check out their website or visit their location using these GPS coordinates: 36.3758676, 9.9026365.</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>Where in El Fahs can you find a highly-rated cafe with an inviting atmosphere, convenient hours, and rave reviews?</t>
-        </is>
-      </c>
+          <t>Patisserie Hanedi is a cafe located in el fahs, it offers a wide selection of pastries and coffee. The cafe is open from 6am to 11pm and is closed on sundays. The cafe is rated 4.0 out of 5 stars by google users. The cafe is located at the following coordinates: (36.3758676, 9.9026365).</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5918,14 +5696,10 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Dar El Malfouf located at 9WG3+528 Dar El Malfouf, P3, El Fahs. This top-rated destination is perfect for Pizzeria lovers. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website or call them at 22 500 516.</t>
-        </is>
-      </c>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>What is the top-rated Pizzeria in el fahs with a 4.7 rating and GPS coordinates of 36.3758676, 9.9026365?</t>
-        </is>
-      </c>
+          <t>Dar El Malfouf is a Pizzeria located in el fahs, Tunisia (36.3758676, 9.9026365). With a rating of 4.7 based on 3 reviews, it's highly recommended by locals and tourists alike.</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -6025,16 +5799,10 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a great cafe experience, check out Cafe prestige located at Cafe prestige, C28, El Fahs. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 04:00-00:00. To get there, use these GPS coordinates: 34.0554764, -6.7782777. For more details, visit their website.</t>
-        </is>
-      </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>Where in el fahs is Cafe prestige located, and what makes it a top-rated cafe destination?</t>
-        </is>
-      </c>
+          <t>Cafe prestige, rated 4.0, is a cafe located in Cafe prestige, C28, El Fahs, Tunisia. Its coordinates are (34.0554764, -6.7782777) and its main category is Cafe. It is open from 04:00-00:00.</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -6130,14 +5898,10 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a top-rated Cafe, check out Cafe Naffeti located at 9WF2+FRF Cafe Naffeti, P3, El Fahs. This highly-rated destination is the perfect spot for Cafe lovers, with a rating of 4.0. It's open 24 hours a day, so you can visit any time to satisfy your cravings. To get there, use these GPS coordinates: 36.3736141, 9.9020549.</t>
-        </is>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated top-rated Cafe open 24 hours a day in El Fahs?</t>
-        </is>
-      </c>
+          <t>Cafe Naffeti is a 4-star cafe located in El Fahs, Tunisia. Its exact coordinates are (36.3736141, 9.9020549). It offers its services 24 hours a day.</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -6229,14 +5993,10 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a top-rated cafe, check out mqh~ shyshkhn located at 9WG3+RJX mqh~ shyshkhn, P3. This destination is perfect for those who love cafes. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%B4%D9%8A%D8%B4%D8%AE%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x12fd1d987916ecf9:0x37db6224d4002e88!8m2!3d36.3771166!4d9.9041139!16s%2Fg%2F11nnvh0vsg!19sChIJ-ewWeZgd_RIRiC4A1CRi2zc?authuser=0&amp;hl=fr&amp;rclk=1</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated cafe in el fahs with GPS coordinates 36.3758676, 9.9026365?</t>
-        </is>
-      </c>
+          <t>mqh~ shyshkhn cafe is located at 36.3758676 latitude and 9.9026365 longitude in mqh~ shyshkhn, P3, El Fahs, Tunisia. It is a cafe that offers a wide range of drinks and food to its customers. The cafe is known for its great atmosphere and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6332,14 +6092,10 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in el fahs, Cafe Liberta is a must-visit spot for Cafe lovers. Located at 9WM5+JQ8 Cafe Liberta, P3, El Fahs, Cafe Liberta offers a great selection of categories to choose from. With a 4.0 rating, it's a top-rated destination that is open during regular business hours. Use these GPS coordinates (36.3758676, 9.9026365) to get there.</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>Where can you visit a highly-rated café in El Fahs that offers a wide variety of options and is a local favorite?</t>
-        </is>
-      </c>
+          <t>Cafe Liberta is a cafe located in El Fahs, Tunisia. It is rated 4.0 out of 5 stars on Google, and it offers a variety of food and drinks. The cafe is located at coordinates (36.3758676, 9.9026365).</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6431,14 +6187,10 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a top-rated Cafe, check out Cafe louh located at 9V9X+G7F Cafe louh, P4, El Fahs. With a perfect 5.0 rating from 2 reviews, it's a must-visit spot for Cafe lovers. Use these GPS coordinates: (36.3758676, 9.9026365) to get there and for additional information visit their website or call for inquiries.</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>Where in el fahs can you find Cafe louh, a top-rated Cafe with a perfect 5.0 rating based on 2 reviews?</t>
-        </is>
-      </c>
+          <t>Cafe louh is a cafe located in el fahs, Tunisia (lon: 9.9026365, lat: 36.3758676). It has a rating of 5.0 based on 2 reviews.</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6530,14 +6282,10 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out mqh~ llwH. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D9%84%D9%88%D8%AD%E2%80%AD/data=!4m7!3m6!1s0x12fd1d1dd324b73d:0xc29da5a246a356a1!8m2!3d36.3800852!4d9.9085046!16s%2Fg%2F11p474j923!19sChIJPbck0x0d_RIRoVajRqKlncI?authuser=0&amp;hl=fr&amp;rclk=1</t>
-        </is>
-      </c>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>What top-rated destination in El Fahs is a must-visit for Cafe lovers?</t>
-        </is>
-      </c>
+          <t>mqh~ llwH is a cafe located in el fahs, Tunisia, at the coordinates (36.3758676, 9.9026365). It has a rating of 4.5 based on 2 reviews and is categorized as a cafe.</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6629,14 +6377,10 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Pizzeria Algeriano located at 9WH5+433 Pizzeria Algeriano, Rue de Mohamed Ali. This top-rated destination is perfect for Pizzeria lovers. With a rating of 5.0, it's a must-visit spot.</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>Where in el fahs can you indulge in a top-rated culinary experience at a 5.0-rated Pizzeria Algeriano?</t>
-        </is>
-      </c>
+          <t>Pizzeria Algeriano is a pizzeria located in El Fahs, Tunisia. It offers a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 9WH5+433 Pizzeria Algeriano, Rue de Mohamed Ali, El Fahs.</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6732,14 +6476,10 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Resto l orient barbecue at 9WV6+3G7 Resto l orient barbecue, C28, El Fahs. This top-rated destination is perfect for Restaurant tunisien lovers. With a rating of 5.0, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 36.3758676, 9.9026365.</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>Where in El Fahs can you find a top-rated Restaurant tunisien destination open 24 hours a day?</t>
-        </is>
-      </c>
+          <t>Resto L'orient Barbecue, located at (36.3758676, 9.9026365) in El Fahs, is a Tunisian restaurant offering a 24/7 dining experience. With a rating of 5.0 based on one review, it specializes in traditional Tunisian cuisine.</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6839,16 +6579,10 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out mT`m bl lwlw located at 9WR6+Q72 mT`m bl lwlw, P3, El Fahs. 
-This top-rated destination is perfect for Restaurant de grillades lovers and offers a range of Restaurant de grillades to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 36.3758676, 9.9026365.</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated Restaurant de grillades restaurant open 24/7 in El Fahs?</t>
-        </is>
-      </c>
+          <t>mT`m bl lwlw is a renowned restaurant located in the heart of El Fahs, Tunisia. Specializing in mouthwatering grilled dishes, mT`m bl lwlw offers a delectable culinary experience that has earned it a 4.0 rating. Located at 9WR6+Q72 mT`m bl lwlw, P3, El Fahs (coordinates: 36.3758676, 9.9026365), this restaurant is open 24 hours a day, providing convenience to its patrons. Despite its lack of a website and phone number, mT`m bl lwlw's commitment to serving tantalizing grilled dishes has garnered it a loyal customer base.</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6952,16 +6686,10 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Cafe Fratelli located at Rue d'Algerie, El Fahs. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 34.6616062, -1.5475202. For more details, visit their website at or call them at 72 670 066.</t>
-        </is>
-      </c>
-      <c r="AA62" t="inlineStr">
-        <is>
-          <t>Where is the top-rated Cafe Fratelli located in El Fahs that's highly recommended for Cafe lovers with a perfect 5.0 rating?</t>
-        </is>
-      </c>
+          <t>Cafe Fratelli is a cafe located in El Fahs, Tunisia at the coordinates (34.6616062, -1.5475202). It offers a variety of cafe beverages and is open from 6:00 AM to midnight every day. The cafe has a 5.0 rating on Google and is owned by Cafe Fratelli (proprietaire).</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -7061,14 +6789,10 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Rafik restaurant located at 9WF2+MWH Rafik restaurant, P3, El Fahs. This top-rated destination is perfect for Restaurant lovers and offers a range of [Restaurant] to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 35.7559322, -5.79827. For more details, visit their website at nan or call them at 93 419 871.</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated restaurant with a wide selection of food and a perfect 5.0 rating in El Fahs?</t>
-        </is>
-      </c>
+          <t>Rafik restaurant is located in el fahs (35.7559322, -5.79827). It offers a variety of dining options, including traditional Tunisian cuisine. The restaurant has a 5.0 rating on Google, and is known for its friendly staff and delicious food.</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -7160,17 +6884,10 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Caffe located at 9WG4+G53 Caffe, Rue de Mohamed Ali, El Fahs
-This highly-rated destination with a rating of 4.0 is perfect for those who love Cafe.
-To get there, you can refer these coordinates for your navigation: (36.3758676, 9.9026365).
-For more information, visit their website at https://www.google.com/maps/place/Caffe/data=!4m7!3m6!1s0x12fd1d7bea46ace9:0x5e3be91de2d434b0!8m2!3d36.376271!4d9.9054065!16s%2Fg%2F11nxnv5mky!19sChIJ6axG6nsd_RIRsDTU4h3pO14?authuser=0&amp;hl=fr&amp;rclk=1 or give them a call at .</t>
-        </is>
-      </c>
-      <c r="AA64" t="inlineStr">
-        <is>
-          <t>Where can you find a popular Cafe in el fahs with high ratings?</t>
-        </is>
-      </c>
+          <t>Caffe is a cafe located in el fahs at (36.3758676, 9.9026365). Caffe has a user rating of 4.0 and has 1 review.</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -7266,16 +6983,10 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in El Fahs and looking for a top-rated cafe, check out Cafe Terminus. 
-This cafe is perfect for cafe lovers and offers a range of cafe categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365.</t>
-        </is>
-      </c>
-      <c r="AA65" t="inlineStr">
-        <is>
-          <t>What is the name of the top-rated cafe in El Fahs that boasts a 5.0 rating and offers a variety of cafe categories to choose from?</t>
-        </is>
-      </c>
+          <t>Cafe Terminus is a cafe located in el fahs, Tunisia. It is rated 5.0 by 1 reviewer. It is open 24 hours a day, 7 days a week. The cafe serves coffee, tea, and other beverages. It also offers a variety of pastries and snacks. The cafe is located at 9WJ9+M8C Cafe Terminus, Unnamed Road, El Fahs.</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -7375,14 +7086,10 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a convenient transportation service, check out Station de Car El fahs / Nabeul / Enfidha / Bouficha located at RJ7J+P5R Station de Car El fahs / Nabeul / Enfidha / Bouficha, Sousse. This top-rated spot offers transportation services and is a must-visit for anyone in need of reliable transportation. It's open during these hours: 06:00-16:00. To get there, use these GPS coordinates: 36.297487, 10.4542067.</t>
-        </is>
-      </c>
-      <c r="AA66" t="inlineStr">
-        <is>
-          <t>Where in El Fahs can you find a highly rated transportation service with specific operating hours?</t>
-        </is>
-      </c>
+          <t>Tucked away in the heart of el fahs at coordinates (36.297487, 10.4542067), Station de Car El fahs / Nabeul / Enfidha / Bouficha is a convenient transportation hub. While we do not have a detailed description or any highlighted review keywords associated with the place, it boasts an impressive rating of 5.0. The station offers a range of services, catering to the travel needs of the community. Whether you're planning a day trip or a longer journey, Station de Car El fahs / Nabeul / Enfidha / Bouficha has got you covered.</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7482,16 +7189,10 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for excellent service, check out Station de Car El fahs / Nabeul / Enfidha / Bouficha located at RJ7J+P5R Station de Car El fahs / Nabeul / Enfidha / Bouficha, Sousse. 
-This top-rated destination is perfect for Service de transport lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-16:00. To get there, use these GPS coordinates: 36.297487, 10.4542067. For more details, visit their website at https://www.google.com/maps/place/Station+de+Car+El+fahs+%2F+Nabeul+%2F+Enfidha+%2F+Bouficha/data=!4m7!3m6!1s0x13027567dd074429:0x5674b13bd1fb8a69!8m2!3d35.8143533!4d10.6303849!16s%2Fg%2F11f_12bl3f!19sChIJKUQH3Wd1AhMRaYr70TuxdFY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA67" t="inlineStr">
-        <is>
-          <t>Where in el fahs can you find a highly rated Service de transport destination with a 5.0 rating, open from 06:00-16:00?</t>
-        </is>
-      </c>
+          <t>El Fahs Station is a transportation service in Tunisia. The station offers bus service to the cities of Nabeul, Enfidha, and Bouficha. It is located at 36.297487 latitude and 10.4542067 longitude.</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -7583,14 +7284,10 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a reliable transportation service, head to Station de louage El Fahs located at 9WG2+7VM Station de louage El Fahs, El Fahs. This top-rated destination is perfect for transportation needs. With a rating of 5.0, it's a must-visit spot for locals and tourists alike. To get there, use these GPS coordinates: 36.37419, 9.90651.</t>
-        </is>
-      </c>
-      <c r="AA68" t="inlineStr">
-        <is>
-          <t>Where can I find a highly-rated transportation service with reliable service and a convenient location in El Fahs?</t>
-        </is>
-      </c>
+          <t>The **Station de louage El Fahs**, located in El Fahs, Tunisia, is a transportation hub that provides public transportation services. With a rating of 5.0 based on 4 reviews, this station offers reliable and efficient transportation options to its customers. Its coordinates are (36.37419, 9.90651), making it easily accessible to residents and visitors in the area.</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7690,14 +7387,10 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in el fahs and searching for a place to pause your journey , check out Gare El Fahs located at Gare El Fahs, P3, El Fahs 1140. This spot is perfect for public transport lovers and has a rating of 2.3, making it a spot worth considering. For more details, visit their website at http://www.sntri.com.tn/ or use the provided GPS coordinates: 36.2065846, 9.8469333 to get there.</t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>What is the name and address of a public transport-friendly rest stop with a 2.3 rating in El Fahs, Tunisia?</t>
-        </is>
-      </c>
+          <t>Gare El Fahs, located in El Fahs, Tunisia, is a public transport hub with a rating of 2.3. Despite the lack of detailed information, it can be assumed that this bus station offers various transportation services, connecting commuters to different destinations.</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -7789,14 +7482,10 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for a Station-service, check out Citernes d eaux located at 9WH3+2CR Citernes d eaux, El Fahs. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.3758676, 9.9026365.</t>
-        </is>
-      </c>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>What's the name of the highly-rated station-service destination located at GPS coordinates 36.3758676, 9.9026365 in El Fahs?</t>
-        </is>
-      </c>
+          <t>Citernes d eaux is a gas station located in El Fahs, Tunisia. It offers a wide range of services, including fueling, repairs, and car washes. The station is conveniently located near a major highway, making it easy to get to and from. The staff is friendly and helpful, and the prices are competitive.</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -7896,16 +7585,10 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something related to Service de transport, check out Station de Car El fahs / Nabeul / Enfidha / Bouficha located at RJ7J+P5R Station de Car El fahs / Nabeul / Enfidha / Bouficha, Sousse. 
-This top-rated destination is perfect for Service de transport lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-16:00, but closed on []. To get there, use these GPS coordinates: 36.297487, 10.4542067. For more details, visit their website at https://www.google.com/maps/place/Station+de+Car+El+fahs+%2F+Nabeul+%2F+Enfidha+%2F+Bouficha/data=!4m7!3m6!1s0x13027567dd074429:0x5674b13bd1fb8a69!8m2!3d35.8143533!4d10.6303849!16s%2Fg%2F11f_12bl3f!19sChIJKUQH3Wd1AhMRaYr70TuxdFY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>Where can you find a top-rated spot for Service de transport with a 5.0 rating in el fahs?</t>
-        </is>
-      </c>
+          <t>Located in el fahs (lon.: 10.4542067, lat.: 36.297487), this station offers transportation services.</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -8005,16 +7688,10 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in el fahs and looking for something fun to do, check out Gare El Fahs located at Gare El Fahs, P3, El Fahs 1140. 
-This top-rated destination is perfect for Arret de bus lovers. 
-With a rating of 2.3, it's a must-visit spot. To get there, use these GPS coordinates: 36.2065846, 9.8469333. For more details, visit their website at http://www.sntri.com.tn/.</t>
-        </is>
-      </c>
-      <c r="AA72" t="inlineStr">
-        <is>
-          <t>If you're a fan of Arret de bus and happen to be in El Fahs, what highly rated spot should you make time to visit?</t>
-        </is>
-      </c>
+          <t>Gare El Fahs is a central bus stop in el fahs, Tunisia. It is managed by the SNT, the national bus company of Tunisia. No further information is available regarding its facilities or schedule.</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
